--- a/cadasta/organization/tests/files/test_download.xlsx
+++ b/cadasta/organization/tests/files/test_download.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="locations" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="parties" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="relationships" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="locations" sheetId="1" r:id="rId4"/>
+    <sheet name="parties" sheetId="2" r:id="rId5"/>
+    <sheet name="relationships" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
   <si>
     <t>id</t>
   </si>
@@ -436,10 +432,10 @@
     <t>spatial_unit_id</t>
   </si>
   <si>
-    <t>tenure_type.id</t>
-  </si>
-  <si>
-    <t>tenure_type.label</t>
+    <t>tenure_type</t>
+  </si>
+  <si>
+    <t>tenure_type_label</t>
   </si>
   <si>
     <t>tenure_name</t>
@@ -477,1517 +473,2770 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="2">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="A7A7A7"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="535353"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="FF00FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Cambria"/>
+            <a:ea typeface="Cambria"/>
+            <a:cs typeface="Cambria"/>
+            <a:sym typeface="Cambria"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Cambria"/>
+            <a:ea typeface="Cambria"/>
+            <a:cs typeface="Cambria"/>
+            <a:sym typeface="Cambria"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.582995951417"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5546558704453"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2955465587045"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.8380566801619"/>
-    <col collapsed="false" hidden="false" max="31" min="9" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="21.0890688259109"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="10.5748987854251"/>
+    <col min="1" max="1" width="29.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6719" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6719" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.8516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6719" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6719" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6719" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6719" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6719" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6719" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6719" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6719" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6719" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6719" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6719" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6719" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6719" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6719" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.6719" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.6719" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.6719" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6719" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6719" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.6719" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.6719" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.6719" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6719" style="1" customWidth="1"/>
+    <col min="32" max="32" width="21.1719" style="1" customWidth="1"/>
+    <col min="33" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" t="s" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="0" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="Q2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="0" t="s">
+      <c r="Q2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="0" t="s">
+      <c r="T2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="V2" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="W2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD2" s="0" t="s">
+      <c r="W2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" t="s" s="2">
         <v>44</v>
       </c>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="4">
         <v>45</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="0" t="s">
+      <c r="N3" s="3"/>
+      <c r="O3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S3" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="0" t="s">
+      <c r="T3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="V3" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="W3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD3" s="0" t="s">
+      <c r="W3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" t="s" s="2">
         <v>49</v>
       </c>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="0" t="s">
+      <c r="N4" s="3"/>
+      <c r="O4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4" s="0" t="s">
+      <c r="T4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U4" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="V4" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="W4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD4" s="0" t="s">
+      <c r="W4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" t="s" s="2">
         <v>54</v>
       </c>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P5" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="Q5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="0" t="s">
+      <c r="Q5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S5" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" s="0" t="s">
+      <c r="T5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U5" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="V5" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="W5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD5" s="0" t="s">
+      <c r="W5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" t="s" s="2">
         <v>58</v>
       </c>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="0" t="s">
+      <c r="N6" s="3"/>
+      <c r="O6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P6" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="Q6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="0" t="s">
+      <c r="Q6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S6" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U6" s="0" t="s">
+      <c r="T6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U6" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="V6" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="W6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD6" s="0" t="s">
+      <c r="W6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" t="s" s="2">
         <v>62</v>
       </c>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="N7" s="3"/>
+      <c r="O7" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="0" t="s">
+      <c r="P7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S7" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U7" s="0" t="s">
+      <c r="T7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U7" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="V7" s="0" t="s">
+      <c r="V7" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="W7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD7" s="0" t="s">
+      <c r="W7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" t="s" s="2">
         <v>66</v>
       </c>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="K8" s="3"/>
+      <c r="L8" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="N8" s="3"/>
+      <c r="O8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="P8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="Q8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="0" t="s">
+      <c r="Q8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U8" s="0" t="s">
+      <c r="T8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U8" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="V8" s="0" t="s">
+      <c r="V8" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="W8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD8" s="0" t="s">
+      <c r="W8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" t="s" s="2">
         <v>69</v>
       </c>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="N9" s="3"/>
+      <c r="O9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="P9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="Q9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="R9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="S9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U9" s="0" t="s">
+      <c r="T9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U9" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="V9" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="W9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD9" s="0" t="s">
+      <c r="W9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" t="s" s="2">
         <v>71</v>
       </c>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="N10" s="3"/>
+      <c r="O10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="P10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="Q10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="R10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="0" t="s">
+      <c r="R10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U10" s="0" t="s">
+      <c r="T10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U10" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="V10" s="0" t="s">
+      <c r="V10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="W10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD10" s="0" t="s">
+      <c r="W10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" t="s" s="2">
         <v>75</v>
       </c>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="N11" s="3"/>
+      <c r="O11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="0" t="s">
+      <c r="P11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="R11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="0" t="s">
+      <c r="R11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U11" s="0" t="s">
+      <c r="T11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="V11" s="0" t="s">
+      <c r="V11" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="W11" s="0" t="s">
+      <c r="W11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="X11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y11" s="0" t="s">
+      <c r="X11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y11" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AD11" s="0" t="s">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AF11" s="0" t="s">
+      <c r="AE11" s="3"/>
+      <c r="AF11" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B2:B11 A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7854251012146"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.5748987854251"/>
+    <col min="1" max="1" width="26.8516" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.6719" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.6719" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.6719" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6719" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.6719" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.6719" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.6719" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.6719" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.6719" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.6719" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.6719" style="5" customWidth="1"/>
+    <col min="13" max="13" width="10.6719" style="5" customWidth="1"/>
+    <col min="14" max="14" width="10.6719" style="5" customWidth="1"/>
+    <col min="15" max="256" width="8.85156" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" t="s" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" t="s" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" t="s" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="N5" t="s" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" t="s" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="N7" t="s" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="N8" t="s" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" t="s" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="N10" t="s" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="N11" t="s" s="2">
         <v>103</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="B2:B11 C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.6437246963563"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.753036437247"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5748987854251"/>
+    <col min="1" max="1" width="31.6719" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.1719" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.8516" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.8516" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.6719" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.6719" style="6" customWidth="1"/>
+    <col min="7" max="256" width="8.85156" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s" s="2">
         <v>142</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s" s="2">
         <v>146</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s" s="2">
         <v>144</v>
       </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s" s="2">
         <v>144</v>
       </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s" s="2">
         <v>144</v>
       </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s" s="2">
         <v>144</v>
       </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s" s="2">
         <v>144</v>
       </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s" s="2">
         <v>144</v>
       </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s" s="2">
         <v>147</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s" s="2">
         <v>149</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s" s="2">
         <v>150</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/cadasta/organization/tests/files/test_download.xlsx
+++ b/cadasta/organization/tests/files/test_download.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>id</t>
   </si>
@@ -435,9 +435,6 @@
     <t>tenure_type</t>
   </si>
   <si>
-    <t>tenure_type_label</t>
-  </si>
-  <si>
     <t>tenure_name</t>
   </si>
   <si>
@@ -447,22 +444,22 @@
     <t>FH</t>
   </si>
   <si>
+    <t>Customary</t>
+  </si>
+  <si>
+    <t>a few notes</t>
+  </si>
+  <si>
+    <t>some more notes</t>
+  </si>
+  <si>
+    <t>Leasehold</t>
+  </si>
+  <si>
+    <t>some notes on the tenure</t>
+  </si>
+  <si>
     <t>Freehold</t>
-  </si>
-  <si>
-    <t>Customary</t>
-  </si>
-  <si>
-    <t>a few notes</t>
-  </si>
-  <si>
-    <t>some more notes</t>
-  </si>
-  <si>
-    <t>Leasehold</t>
-  </si>
-  <si>
-    <t>some notes on the tenure</t>
   </si>
   <si>
     <t>some notes</t>
@@ -545,7 +542,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -713,13 +710,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -818,10 +809,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1076,13 +1067,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1395,10 +1380,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3021,7 +3006,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3030,10 +3015,9 @@
     <col min="1" max="1" width="31.6719" style="6" customWidth="1"/>
     <col min="2" max="2" width="29.1719" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.8516" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.8516" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.6719" style="6" customWidth="1"/>
     <col min="5" max="5" width="10.6719" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.6719" style="6" customWidth="1"/>
-    <col min="7" max="256" width="8.85156" style="6" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -3052,9 +3036,6 @@
       <c r="E1" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="F1" t="s" s="2">
-        <v>142</v>
-      </c>
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="2">
@@ -3064,16 +3045,13 @@
         <v>32</v>
       </c>
       <c r="C2" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="E2" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>146</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -3084,13 +3062,10 @@
         <v>45</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="s" s="2">
@@ -3100,13 +3075,10 @@
         <v>50</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="2">
@@ -3116,13 +3088,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="2">
@@ -3132,13 +3101,10 @@
         <v>59</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="s" s="2">
@@ -3148,13 +3114,10 @@
         <v>63</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="s" s="2">
@@ -3164,13 +3127,10 @@
         <v>67</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="s" s="2">
@@ -3180,16 +3140,13 @@
         <v>70</v>
       </c>
       <c r="C9" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="D9" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="E9" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="F9" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="10" ht="15" customHeight="1">
@@ -3200,16 +3157,13 @@
         <v>72</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -3220,16 +3174,13 @@
         <v>76</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/cadasta/organization/tests/files/test_download.xlsx
+++ b/cadasta/organization/tests/files/test_download.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="locations" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="parties" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="relationships" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="locations" sheetId="1" r:id="rId4"/>
+    <sheet name="parties" sheetId="2" r:id="rId5"/>
+    <sheet name="relationships" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>id</t>
   </si>
@@ -436,10 +432,7 @@
     <t>spatial_unit_id</t>
   </si>
   <si>
-    <t>tenure_type.id</t>
-  </si>
-  <si>
-    <t>tenure_type.label</t>
+    <t>tenure_type</t>
   </si>
   <si>
     <t>tenure_name</t>
@@ -451,22 +444,22 @@
     <t>FH</t>
   </si>
   <si>
+    <t>Customary</t>
+  </si>
+  <si>
+    <t>a few notes</t>
+  </si>
+  <si>
+    <t>some more notes</t>
+  </si>
+  <si>
+    <t>Leasehold</t>
+  </si>
+  <si>
+    <t>some notes on the tenure</t>
+  </si>
+  <si>
     <t>Freehold</t>
-  </si>
-  <si>
-    <t>Customary</t>
-  </si>
-  <si>
-    <t>a few notes</t>
-  </si>
-  <si>
-    <t>some more notes</t>
-  </si>
-  <si>
-    <t>Leasehold</t>
-  </si>
-  <si>
-    <t>some notes on the tenure</t>
   </si>
   <si>
     <t>some notes</t>
@@ -477,1517 +470,2724 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="2">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="A7A7A7"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="535353"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="FF00FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.582995951417"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5546558704453"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2955465587045"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.8380566801619"/>
-    <col collapsed="false" hidden="false" max="31" min="9" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="21.0890688259109"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="10.5748987854251"/>
+    <col min="1" max="1" width="29.1719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6719" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6719" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.8516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6719" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6719" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6719" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6719" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6719" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6719" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6719" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6719" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6719" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6719" style="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6719" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6719" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6719" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6719" style="1" customWidth="1"/>
+    <col min="23" max="23" width="10.6719" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.6719" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.6719" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10.6719" style="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6719" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.6719" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.6719" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.6719" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6719" style="1" customWidth="1"/>
+    <col min="32" max="32" width="21.1719" style="1" customWidth="1"/>
+    <col min="33" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" t="s" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="O2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="0" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="Q2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="0" t="s">
+      <c r="Q2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="0" t="s">
+      <c r="T2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="V2" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="W2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD2" s="0" t="s">
+      <c r="W2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" t="s" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="4">
         <v>45</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="0" t="s">
+      <c r="N3" s="3"/>
+      <c r="O3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S3" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="0" t="s">
+      <c r="T3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="V3" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="W3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD3" s="0" t="s">
+      <c r="W3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" t="s" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="0" t="s">
+      <c r="N4" s="3"/>
+      <c r="O4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S4" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4" s="0" t="s">
+      <c r="T4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U4" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="V4" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="W4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD4" s="0" t="s">
+      <c r="W4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" t="s" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="O5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="0" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P5" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="Q5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="0" t="s">
+      <c r="Q5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S5" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U5" s="0" t="s">
+      <c r="T5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U5" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="V5" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="W5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD5" s="0" t="s">
+      <c r="W5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" t="s" s="2">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="O6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="0" t="s">
+      <c r="N6" s="3"/>
+      <c r="O6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P6" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="Q6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="0" t="s">
+      <c r="Q6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S6" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U6" s="0" t="s">
+      <c r="T6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U6" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="V6" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="W6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD6" s="0" t="s">
+      <c r="W6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" t="s" s="2">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="N7" s="3"/>
+      <c r="O7" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S7" s="0" t="s">
+      <c r="P7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S7" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U7" s="0" t="s">
+      <c r="T7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U7" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="V7" s="0" t="s">
+      <c r="V7" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="W7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD7" s="0" t="s">
+      <c r="W7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" t="s" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="K8" s="3"/>
+      <c r="L8" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="N8" s="3"/>
+      <c r="O8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="P8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="Q8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S8" s="0" t="s">
+      <c r="Q8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S8" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U8" s="0" t="s">
+      <c r="T8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U8" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="V8" s="0" t="s">
+      <c r="V8" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="W8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X8" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD8" s="0" t="s">
+      <c r="W8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" t="s" s="2">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="J9" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="O9" s="0" t="s">
+      <c r="N9" s="3"/>
+      <c r="O9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P9" s="0" t="s">
+      <c r="P9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="Q9" s="0" t="s">
+      <c r="Q9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="R9" s="0" t="s">
+      <c r="R9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="S9" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U9" s="0" t="s">
+      <c r="T9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U9" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="V9" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="W9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X9" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD9" s="0" t="s">
+      <c r="W9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" t="s" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="J10" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="O10" s="0" t="s">
+      <c r="N10" s="3"/>
+      <c r="O10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P10" s="0" t="s">
+      <c r="P10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="Q10" s="0" t="s">
+      <c r="Q10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="R10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S10" s="0" t="s">
+      <c r="R10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S10" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U10" s="0" t="s">
+      <c r="T10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U10" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="V10" s="0" t="s">
+      <c r="V10" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="W10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="X10" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD10" s="0" t="s">
+      <c r="W10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" t="s" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="J11" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="O11" s="0" t="s">
+      <c r="N11" s="3"/>
+      <c r="O11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="0" t="s">
+      <c r="P11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="R11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="S11" s="0" t="s">
+      <c r="R11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="T11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="U11" s="0" t="s">
+      <c r="T11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="V11" s="0" t="s">
+      <c r="V11" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="W11" s="0" t="s">
+      <c r="W11" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="X11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y11" s="0" t="s">
+      <c r="X11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y11" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AD11" s="0" t="s">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AF11" s="0" t="s">
+      <c r="AE11" s="3"/>
+      <c r="AF11" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B2:B11 A8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.7854251012146"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.5748987854251"/>
+    <col min="1" max="1" width="26.8516" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.6719" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.6719" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.6719" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.6719" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.6719" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.6719" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.6719" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.6719" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.6719" style="5" customWidth="1"/>
+    <col min="11" max="11" width="10.6719" style="5" customWidth="1"/>
+    <col min="12" max="12" width="10.6719" style="5" customWidth="1"/>
+    <col min="13" max="13" width="10.6719" style="5" customWidth="1"/>
+    <col min="14" max="14" width="10.6719" style="5" customWidth="1"/>
+    <col min="15" max="256" width="8.85156" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" t="s" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" t="s" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" t="s" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="N5" t="s" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="I6" s="3"/>
+      <c r="J6" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" t="s" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="I7" s="3"/>
+      <c r="J7" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="N7" t="s" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="I8" s="3"/>
+      <c r="J8" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="N8" t="s" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="J9" s="0" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K9" s="0" t="s">
+      <c r="K9" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N9" s="0" t="s">
+      <c r="N9" t="s" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="J10" s="0" t="s">
+      <c r="I10" s="3"/>
+      <c r="J10" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K10" s="0" t="s">
+      <c r="K10" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="N10" s="0" t="s">
+      <c r="N10" t="s" s="2">
         <v>103</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="J11" s="0" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="N11" s="0" t="s">
+      <c r="N11" t="s" s="2">
         <v>103</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F11"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="B2:B11 C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.8" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.6437246963563"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="16.753036437247"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.5748987854251"/>
+    <col min="1" max="1" width="31.6719" style="6" customWidth="1"/>
+    <col min="2" max="2" width="29.1719" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.8516" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.6719" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.6719" style="6" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="F1" s="0" t="s">
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="E2" s="0" t="s">
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="E9" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="F2" s="0" t="s">
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="D10" t="s" s="2">
         <v>146</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="E10" t="s" s="2">
         <v>147</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="0" t="s">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="D11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="E11" t="s" s="2">
         <v>149</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>150</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511806" footer="0.511806"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>